--- a/Code/Results/Cases/Case_1_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026446079360761</v>
+        <v>1.053896268566671</v>
       </c>
       <c r="D2">
-        <v>1.059398648574864</v>
+        <v>1.067881951492595</v>
       </c>
       <c r="E2">
-        <v>1.040889397256197</v>
+        <v>1.061465396656779</v>
       </c>
       <c r="F2">
-        <v>1.056124009316257</v>
+        <v>1.074476957839882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06566611392941</v>
+        <v>1.053606814279874</v>
       </c>
       <c r="J2">
-        <v>1.047863573432304</v>
+        <v>1.058911207378102</v>
       </c>
       <c r="K2">
-        <v>1.070088138530826</v>
+        <v>1.070588624021155</v>
       </c>
       <c r="L2">
-        <v>1.051807019475719</v>
+        <v>1.064189383248673</v>
       </c>
       <c r="M2">
-        <v>1.066853136747088</v>
+        <v>1.077166067730351</v>
       </c>
       <c r="N2">
-        <v>1.019075179041824</v>
+        <v>1.023343406525857</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031756284987696</v>
+        <v>1.055001702244641</v>
       </c>
       <c r="D3">
-        <v>1.063365993650433</v>
+        <v>1.068708921242147</v>
       </c>
       <c r="E3">
-        <v>1.045320838282979</v>
+        <v>1.062431308224346</v>
       </c>
       <c r="F3">
-        <v>1.060747452443912</v>
+        <v>1.075482472832595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067689611314677</v>
+        <v>1.053950241372019</v>
       </c>
       <c r="J3">
-        <v>1.051417148009198</v>
+        <v>1.059666950345578</v>
       </c>
       <c r="K3">
-        <v>1.073247548137689</v>
+        <v>1.071231437012455</v>
       </c>
       <c r="L3">
-        <v>1.055404898823074</v>
+        <v>1.064969539885895</v>
       </c>
       <c r="M3">
-        <v>1.070657867226679</v>
+        <v>1.077988252558492</v>
       </c>
       <c r="N3">
-        <v>1.0203173253302</v>
+        <v>1.023602519392131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035115904226647</v>
+        <v>1.055717159302028</v>
       </c>
       <c r="D4">
-        <v>1.065878449627666</v>
+        <v>1.069244022243975</v>
       </c>
       <c r="E4">
-        <v>1.048129995678176</v>
+        <v>1.063056760753208</v>
       </c>
       <c r="F4">
-        <v>1.063678358018855</v>
+        <v>1.076133573261865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068959323981608</v>
+        <v>1.054171187091721</v>
       </c>
       <c r="J4">
-        <v>1.053662085065831</v>
+        <v>1.060155552370791</v>
       </c>
       <c r="K4">
-        <v>1.075241843152868</v>
+        <v>1.071646724590362</v>
       </c>
       <c r="L4">
-        <v>1.057680266994054</v>
+        <v>1.06547417378598</v>
       </c>
       <c r="M4">
-        <v>1.073064503452356</v>
+        <v>1.078520108698895</v>
       </c>
       <c r="N4">
-        <v>1.021101309985684</v>
+        <v>1.023769866794241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036510725315595</v>
+        <v>1.056017977912843</v>
       </c>
       <c r="D5">
-        <v>1.066922056931805</v>
+        <v>1.069468977155693</v>
       </c>
       <c r="E5">
-        <v>1.049297547112635</v>
+        <v>1.06331980674236</v>
       </c>
       <c r="F5">
-        <v>1.064896513230857</v>
+        <v>1.076407406749893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069483907378273</v>
+        <v>1.054263767365754</v>
       </c>
       <c r="J5">
-        <v>1.054593286956064</v>
+        <v>1.060360861406719</v>
       </c>
       <c r="K5">
-        <v>1.076068658922435</v>
+        <v>1.071821154166299</v>
       </c>
       <c r="L5">
-        <v>1.058624671598722</v>
+        <v>1.065686278656967</v>
       </c>
       <c r="M5">
-        <v>1.074063492365253</v>
+        <v>1.078743664177515</v>
       </c>
       <c r="N5">
-        <v>1.021426322373747</v>
+        <v>1.023840143861906</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036743912665154</v>
+        <v>1.056068489064443</v>
       </c>
       <c r="D6">
-        <v>1.067096555568185</v>
+        <v>1.069506747965225</v>
       </c>
       <c r="E6">
-        <v>1.049492812271091</v>
+        <v>1.063363979512368</v>
       </c>
       <c r="F6">
-        <v>1.06510024150296</v>
+        <v>1.076453391085666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069571455444935</v>
+        <v>1.054279294092875</v>
       </c>
       <c r="J6">
-        <v>1.05474891590889</v>
+        <v>1.060395327874222</v>
       </c>
       <c r="K6">
-        <v>1.076206816671244</v>
+        <v>1.071850432422146</v>
       </c>
       <c r="L6">
-        <v>1.058782541009171</v>
+        <v>1.065721889457251</v>
       </c>
       <c r="M6">
-        <v>1.074230491957247</v>
+        <v>1.078781197955362</v>
       </c>
       <c r="N6">
-        <v>1.021480629533269</v>
+        <v>1.023851939242922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035134609959623</v>
+        <v>1.055721178695579</v>
       </c>
       <c r="D7">
-        <v>1.065892443390206</v>
+        <v>1.06924702810943</v>
       </c>
       <c r="E7">
-        <v>1.048145648596227</v>
+        <v>1.063060275171509</v>
       </c>
       <c r="F7">
-        <v>1.063694689360805</v>
+        <v>1.076137231803266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068966369292361</v>
+        <v>1.054172425353732</v>
       </c>
       <c r="J7">
-        <v>1.053674576619273</v>
+        <v>1.060158296110296</v>
       </c>
       <c r="K7">
-        <v>1.075252936119811</v>
+        <v>1.071649055945581</v>
       </c>
       <c r="L7">
-        <v>1.057692933369782</v>
+        <v>1.065477008111749</v>
       </c>
       <c r="M7">
-        <v>1.073077901525563</v>
+        <v>1.07852309600335</v>
       </c>
       <c r="N7">
-        <v>1.021105670590566</v>
+        <v>1.023770806137797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02825697259577</v>
+        <v>1.054269820572442</v>
       </c>
       <c r="D8">
-        <v>1.060751039690477</v>
+        <v>1.06816143016738</v>
       </c>
       <c r="E8">
-        <v>1.042399422217719</v>
+        <v>1.061791739026678</v>
       </c>
       <c r="F8">
-        <v>1.057699448320599</v>
+        <v>1.074816679787786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066358344359088</v>
+        <v>1.053723140879318</v>
       </c>
       <c r="J8">
-        <v>1.049076088474244</v>
+        <v>1.059166699961174</v>
       </c>
       <c r="K8">
-        <v>1.071166486143928</v>
+        <v>1.070806001139087</v>
       </c>
       <c r="L8">
-        <v>1.053034134600277</v>
+        <v>1.064453077893558</v>
       </c>
       <c r="M8">
-        <v>1.06815070224598</v>
+        <v>1.077443960290222</v>
       </c>
       <c r="N8">
-        <v>1.019499158797438</v>
+        <v>1.023431040266357</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015516863567786</v>
+        <v>1.051713609288588</v>
       </c>
       <c r="D9">
-        <v>1.051250330314457</v>
+        <v>1.066248468061423</v>
       </c>
       <c r="E9">
-        <v>1.031801870567717</v>
+        <v>1.059559825235911</v>
       </c>
       <c r="F9">
-        <v>1.04664322834055</v>
+        <v>1.072493279292837</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061445623383122</v>
+        <v>1.052921689881474</v>
       </c>
       <c r="J9">
-        <v>1.040533333923144</v>
+        <v>1.057416212238314</v>
       </c>
       <c r="K9">
-        <v>1.063563241708189</v>
+        <v>1.069315429198888</v>
       </c>
       <c r="L9">
-        <v>1.044399227143322</v>
+        <v>1.062647415843033</v>
       </c>
       <c r="M9">
-        <v>1.059022310486587</v>
+        <v>1.075541233142731</v>
       </c>
       <c r="N9">
-        <v>1.016509327648694</v>
+        <v>1.022829915733876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00655268524037</v>
+        <v>1.050010295164916</v>
       </c>
       <c r="D10">
-        <v>1.044586920627032</v>
+        <v>1.064973196837669</v>
       </c>
       <c r="E10">
-        <v>1.024381053840738</v>
+        <v>1.058074192425707</v>
       </c>
       <c r="F10">
-        <v>1.038902085754966</v>
+        <v>1.070946777191243</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057936902539084</v>
+        <v>1.052380839531436</v>
       </c>
       <c r="J10">
-        <v>1.034508712504596</v>
+        <v>1.056247092713328</v>
       </c>
       <c r="K10">
-        <v>1.05819525139476</v>
+        <v>1.068318374181673</v>
       </c>
       <c r="L10">
-        <v>1.038323625477934</v>
+        <v>1.061442733107868</v>
       </c>
       <c r="M10">
-        <v>1.052602764183959</v>
+        <v>1.074271992041709</v>
       </c>
       <c r="N10">
-        <v>1.014397859068695</v>
+        <v>1.022427550757014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002546278281477</v>
+        <v>1.049272930936336</v>
       </c>
       <c r="D11">
-        <v>1.041615285179324</v>
+        <v>1.064421006170787</v>
       </c>
       <c r="E11">
-        <v>1.021073931316101</v>
+        <v>1.057431447803341</v>
       </c>
       <c r="F11">
-        <v>1.035452523916119</v>
+        <v>1.070277705707565</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056357169513802</v>
+        <v>1.052145093221428</v>
       </c>
       <c r="J11">
-        <v>1.031813511414865</v>
+        <v>1.055740346178991</v>
       </c>
       <c r="K11">
-        <v>1.055792872191677</v>
+        <v>1.067885850181401</v>
       </c>
       <c r="L11">
-        <v>1.035609074261058</v>
+        <v>1.060920878301701</v>
       </c>
       <c r="M11">
-        <v>1.04973545768146</v>
+        <v>1.073722220370754</v>
       </c>
       <c r="N11">
-        <v>1.01345272417006</v>
+        <v>1.022252940489828</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001038131356946</v>
+        <v>1.048999067710976</v>
       </c>
       <c r="D12">
-        <v>1.040497760510059</v>
+        <v>1.064215899998203</v>
       </c>
       <c r="E12">
-        <v>1.019830537963435</v>
+        <v>1.057192785736656</v>
       </c>
       <c r="F12">
-        <v>1.034155634999492</v>
+        <v>1.070029269276601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055760838874476</v>
+        <v>1.052057293033422</v>
       </c>
       <c r="J12">
-        <v>1.030798620490771</v>
+        <v>1.055552041205108</v>
       </c>
       <c r="K12">
-        <v>1.054888148177951</v>
+        <v>1.067725072682296</v>
       </c>
       <c r="L12">
-        <v>1.034587428734102</v>
+        <v>1.060727005283041</v>
       </c>
       <c r="M12">
-        <v>1.048656472168386</v>
+        <v>1.073517983526901</v>
       </c>
       <c r="N12">
-        <v>1.013096762167776</v>
+        <v>1.022188024907119</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001362559432253</v>
+        <v>1.049057811105802</v>
       </c>
       <c r="D13">
-        <v>1.040738107320546</v>
+        <v>1.06425989586877</v>
       </c>
       <c r="E13">
-        <v>1.020097942874588</v>
+        <v>1.057243975851424</v>
       </c>
       <c r="F13">
-        <v>1.034434541900151</v>
+        <v>1.070082555815647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055889193796043</v>
+        <v>1.052076137038038</v>
       </c>
       <c r="J13">
-        <v>1.031016954495792</v>
+        <v>1.055592436736093</v>
       </c>
       <c r="K13">
-        <v>1.055082785556806</v>
+        <v>1.067759565374772</v>
       </c>
       <c r="L13">
-        <v>1.034807191629447</v>
+        <v>1.060768593192342</v>
       </c>
       <c r="M13">
-        <v>1.048888562252932</v>
+        <v>1.073561794249958</v>
       </c>
       <c r="N13">
-        <v>1.013173343246726</v>
+        <v>1.022201952123275</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002422029638094</v>
+        <v>1.049250292776269</v>
       </c>
       <c r="D14">
-        <v>1.041523194852205</v>
+        <v>1.064404051986352</v>
       </c>
       <c r="E14">
-        <v>1.020971462974794</v>
+        <v>1.057411718250787</v>
       </c>
       <c r="F14">
-        <v>1.035345645750542</v>
+        <v>1.070257168108478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056308074243158</v>
+        <v>1.052137840393831</v>
       </c>
       <c r="J14">
-        <v>1.031729905907264</v>
+        <v>1.055724782397415</v>
       </c>
       <c r="K14">
-        <v>1.055718343805791</v>
+        <v>1.067872562685755</v>
       </c>
       <c r="L14">
-        <v>1.035524901439888</v>
+        <v>1.060904853368642</v>
       </c>
       <c r="M14">
-        <v>1.049646557507638</v>
+        <v>1.073705338642785</v>
       </c>
       <c r="N14">
-        <v>1.013423401719846</v>
+        <v>1.02224757572119</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003072116907201</v>
+        <v>1.049368890601653</v>
       </c>
       <c r="D15">
-        <v>1.042005070605956</v>
+        <v>1.064492871611632</v>
       </c>
       <c r="E15">
-        <v>1.02150765493014</v>
+        <v>1.057515080736731</v>
       </c>
       <c r="F15">
-        <v>1.035904915673409</v>
+        <v>1.070364763975775</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056564880540316</v>
+        <v>1.052175826926444</v>
       </c>
       <c r="J15">
-        <v>1.032167329375833</v>
+        <v>1.055806314753984</v>
       </c>
       <c r="K15">
-        <v>1.056108272164024</v>
+        <v>1.067942168320198</v>
       </c>
       <c r="L15">
-        <v>1.035965314824633</v>
+        <v>1.060988803400671</v>
       </c>
       <c r="M15">
-        <v>1.050111711814943</v>
+        <v>1.073793777485765</v>
       </c>
       <c r="N15">
-        <v>1.013576813947127</v>
+        <v>1.022275678301241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006815843950272</v>
+        <v>1.050059235378371</v>
       </c>
       <c r="D16">
-        <v>1.04478225611657</v>
+        <v>1.065009844170721</v>
       </c>
       <c r="E16">
-        <v>1.024598485684166</v>
+        <v>1.05811686074734</v>
       </c>
       <c r="F16">
-        <v>1.039128889932471</v>
+        <v>1.070991193379851</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058040431857202</v>
+        <v>1.052396452488648</v>
       </c>
       <c r="J16">
-        <v>1.034685696729797</v>
+        <v>1.056280713055401</v>
       </c>
       <c r="K16">
-        <v>1.058352991278231</v>
+        <v>1.068347062697434</v>
       </c>
       <c r="L16">
-        <v>1.038501953266728</v>
+        <v>1.061477362276148</v>
       </c>
       <c r="M16">
-        <v>1.052791147133235</v>
+        <v>1.074308474758261</v>
       </c>
       <c r="N16">
-        <v>1.014459912664699</v>
+        <v>1.022439130990088</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009129919930271</v>
+        <v>1.050492318679986</v>
       </c>
       <c r="D17">
-        <v>1.046500681517824</v>
+        <v>1.065334130477771</v>
       </c>
       <c r="E17">
-        <v>1.026511554162474</v>
+        <v>1.058494487246914</v>
       </c>
       <c r="F17">
-        <v>1.041124457731963</v>
+        <v>1.071384289884111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058949507672336</v>
+        <v>1.052534428908569</v>
       </c>
       <c r="J17">
-        <v>1.036241714130759</v>
+        <v>1.056578153934863</v>
       </c>
       <c r="K17">
-        <v>1.059739714692214</v>
+        <v>1.068600830219852</v>
       </c>
       <c r="L17">
-        <v>1.040070176968108</v>
+        <v>1.061783763676821</v>
       </c>
       <c r="M17">
-        <v>1.054447902169436</v>
+        <v>1.074631282173802</v>
       </c>
       <c r="N17">
-        <v>1.015005418552703</v>
+        <v>1.022541557900529</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010467722628984</v>
+        <v>1.050744946450169</v>
       </c>
       <c r="D18">
-        <v>1.047494734025863</v>
+        <v>1.065523282144015</v>
       </c>
       <c r="E18">
-        <v>1.027618421536267</v>
+        <v>1.058714802891624</v>
       </c>
       <c r="F18">
-        <v>1.042279086920467</v>
+        <v>1.071613631802892</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059473958782181</v>
+        <v>1.052614758226656</v>
       </c>
       <c r="J18">
-        <v>1.037141022507801</v>
+        <v>1.056751596961416</v>
       </c>
       <c r="K18">
-        <v>1.06054108761435</v>
+        <v>1.068748772031169</v>
       </c>
       <c r="L18">
-        <v>1.040976866245953</v>
+        <v>1.061962461275203</v>
       </c>
       <c r="M18">
-        <v>1.055405863004176</v>
+        <v>1.074819552716405</v>
       </c>
       <c r="N18">
-        <v>1.015320644574338</v>
+        <v>1.022601264769919</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010921886083673</v>
+        <v>1.050831088998209</v>
       </c>
       <c r="D19">
-        <v>1.047832298492411</v>
+        <v>1.065587778120059</v>
       </c>
       <c r="E19">
-        <v>1.02799433488452</v>
+        <v>1.058789933732871</v>
       </c>
       <c r="F19">
-        <v>1.042671225742905</v>
+        <v>1.071691840855966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059651813312993</v>
+        <v>1.052642123005568</v>
       </c>
       <c r="J19">
-        <v>1.037446279840996</v>
+        <v>1.056810728208658</v>
       </c>
       <c r="K19">
-        <v>1.060813085459476</v>
+        <v>1.068799203383792</v>
       </c>
       <c r="L19">
-        <v>1.041284683899643</v>
+        <v>1.062023388949213</v>
       </c>
       <c r="M19">
-        <v>1.055731101378153</v>
+        <v>1.074883745122455</v>
       </c>
       <c r="N19">
-        <v>1.015427634304855</v>
+        <v>1.022621616988888</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008882886983769</v>
+        <v>1.05044585112382</v>
       </c>
       <c r="D20">
-        <v>1.046317172030631</v>
+        <v>1.065299337524125</v>
       </c>
       <c r="E20">
-        <v>1.026307236349462</v>
+        <v>1.058453966066222</v>
       </c>
       <c r="F20">
-        <v>1.040911325801183</v>
+        <v>1.071342108619454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058852575358457</v>
+        <v>1.052519640858671</v>
       </c>
       <c r="J20">
-        <v>1.036075631106171</v>
+        <v>1.056546246433813</v>
       </c>
       <c r="K20">
-        <v>1.059591710583162</v>
+        <v>1.068573611276266</v>
       </c>
       <c r="L20">
-        <v>1.039902757146449</v>
+        <v>1.061750891894112</v>
       </c>
       <c r="M20">
-        <v>1.054271021939434</v>
+        <v>1.074596649808332</v>
       </c>
       <c r="N20">
-        <v>1.014947198747874</v>
+        <v>1.022530572290426</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002110604266083</v>
+        <v>1.049193610990628</v>
       </c>
       <c r="D21">
-        <v>1.041292391447621</v>
+        <v>1.064361601542773</v>
       </c>
       <c r="E21">
-        <v>1.020714654041185</v>
+        <v>1.057362320032907</v>
       </c>
       <c r="F21">
-        <v>1.035077785767133</v>
+        <v>1.070205746750255</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056184991898004</v>
+        <v>1.052119676739206</v>
       </c>
       <c r="J21">
-        <v>1.03152034626156</v>
+        <v>1.055685812018336</v>
       </c>
       <c r="K21">
-        <v>1.055531534827926</v>
+        <v>1.067839291072247</v>
       </c>
       <c r="L21">
-        <v>1.035313928412587</v>
+        <v>1.0608647290511</v>
       </c>
       <c r="M21">
-        <v>1.049423738190829</v>
+        <v>1.07366306914548</v>
       </c>
       <c r="N21">
-        <v>1.013349903113726</v>
+        <v>1.02223414229695</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.997736263935756</v>
+        <v>1.048406431954198</v>
       </c>
       <c r="D22">
-        <v>1.038053273037227</v>
+        <v>1.06377202168742</v>
       </c>
       <c r="E22">
-        <v>1.017111212381091</v>
+        <v>1.056676432790283</v>
       </c>
       <c r="F22">
-        <v>1.031319432655242</v>
+        <v>1.069491771577307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054452277379929</v>
+        <v>1.051866852416181</v>
       </c>
       <c r="J22">
-        <v>1.028576137093379</v>
+        <v>1.055144378653334</v>
       </c>
       <c r="K22">
-        <v>1.052906788962834</v>
+        <v>1.067376907441597</v>
       </c>
       <c r="L22">
-        <v>1.032351147019231</v>
+        <v>1.060307372919501</v>
       </c>
       <c r="M22">
-        <v>1.046294971554455</v>
+        <v>1.073075932831482</v>
       </c>
       <c r="N22">
-        <v>1.012317143029962</v>
+        <v>1.022047432036162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000066650570022</v>
+        <v>1.048823716076262</v>
       </c>
       <c r="D23">
-        <v>1.039778227392799</v>
+        <v>1.064084567823439</v>
       </c>
       <c r="E23">
-        <v>1.019030039740763</v>
+        <v>1.057039989621456</v>
       </c>
       <c r="F23">
-        <v>1.033320713999647</v>
+        <v>1.069870215786725</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055376249223723</v>
+        <v>1.052001007419447</v>
       </c>
       <c r="J23">
-        <v>1.030144789364791</v>
+        <v>1.055431444858215</v>
       </c>
       <c r="K23">
-        <v>1.05430526917922</v>
+        <v>1.067622090823836</v>
       </c>
       <c r="L23">
-        <v>1.033929397553058</v>
+        <v>1.060602855986246</v>
       </c>
       <c r="M23">
-        <v>1.04796155311225</v>
+        <v>1.073387199737502</v>
       </c>
       <c r="N23">
-        <v>1.012867420926867</v>
+        <v>1.022146442214166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008994547404195</v>
+        <v>1.050466847757611</v>
       </c>
       <c r="D24">
-        <v>1.046400117588706</v>
+        <v>1.065315058959265</v>
       </c>
       <c r="E24">
-        <v>1.026399586501384</v>
+        <v>1.058472275681258</v>
       </c>
       <c r="F24">
-        <v>1.041007659779968</v>
+        <v>1.071361168346084</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058896392780048</v>
+        <v>1.052526323405262</v>
       </c>
       <c r="J24">
-        <v>1.036150702438236</v>
+        <v>1.056560664211997</v>
       </c>
       <c r="K24">
-        <v>1.05965861033483</v>
+        <v>1.068585910581528</v>
       </c>
       <c r="L24">
-        <v>1.039978431714276</v>
+        <v>1.061765745303024</v>
       </c>
       <c r="M24">
-        <v>1.054350972391749</v>
+        <v>1.074612298737725</v>
       </c>
       <c r="N24">
-        <v>1.014973514894607</v>
+        <v>1.022535536329101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018889304314594</v>
+        <v>1.052374303623594</v>
       </c>
       <c r="D25">
-        <v>1.053762008645925</v>
+        <v>1.066743010807163</v>
       </c>
       <c r="E25">
-        <v>1.034601309513665</v>
+        <v>1.060136422644052</v>
       </c>
       <c r="F25">
-        <v>1.049563716864707</v>
+        <v>1.073093507187809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062755259769474</v>
+        <v>1.053130039234468</v>
       </c>
       <c r="J25">
-        <v>1.042797271667253</v>
+        <v>1.057869130497676</v>
       </c>
       <c r="K25">
-        <v>1.065579366335123</v>
+        <v>1.069701368181774</v>
       </c>
       <c r="L25">
-        <v>1.046685222024636</v>
+        <v>1.063114383583813</v>
       </c>
       <c r="M25">
-        <v>1.061438430195023</v>
+        <v>1.076033268367597</v>
       </c>
       <c r="N25">
-        <v>1.017302226769036</v>
+        <v>1.022985606091618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053896268566671</v>
+        <v>1.026446079360761</v>
       </c>
       <c r="D2">
-        <v>1.067881951492595</v>
+        <v>1.059398648574864</v>
       </c>
       <c r="E2">
-        <v>1.061465396656779</v>
+        <v>1.040889397256197</v>
       </c>
       <c r="F2">
-        <v>1.074476957839882</v>
+        <v>1.056124009316257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053606814279874</v>
+        <v>1.06566611392941</v>
       </c>
       <c r="J2">
-        <v>1.058911207378102</v>
+        <v>1.047863573432304</v>
       </c>
       <c r="K2">
-        <v>1.070588624021155</v>
+        <v>1.070088138530825</v>
       </c>
       <c r="L2">
-        <v>1.064189383248673</v>
+        <v>1.051807019475719</v>
       </c>
       <c r="M2">
-        <v>1.077166067730351</v>
+        <v>1.066853136747088</v>
       </c>
       <c r="N2">
-        <v>1.023343406525857</v>
+        <v>1.019075179041824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055001702244641</v>
+        <v>1.031756284987696</v>
       </c>
       <c r="D3">
-        <v>1.068708921242147</v>
+        <v>1.063365993650433</v>
       </c>
       <c r="E3">
-        <v>1.062431308224346</v>
+        <v>1.045320838282979</v>
       </c>
       <c r="F3">
-        <v>1.075482472832595</v>
+        <v>1.060747452443911</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053950241372019</v>
+        <v>1.067689611314677</v>
       </c>
       <c r="J3">
-        <v>1.059666950345578</v>
+        <v>1.051417148009198</v>
       </c>
       <c r="K3">
-        <v>1.071231437012455</v>
+        <v>1.073247548137689</v>
       </c>
       <c r="L3">
-        <v>1.064969539885895</v>
+        <v>1.055404898823073</v>
       </c>
       <c r="M3">
-        <v>1.077988252558492</v>
+        <v>1.070657867226678</v>
       </c>
       <c r="N3">
-        <v>1.023602519392131</v>
+        <v>1.0203173253302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055717159302028</v>
+        <v>1.035115904226646</v>
       </c>
       <c r="D4">
-        <v>1.069244022243975</v>
+        <v>1.065878449627665</v>
       </c>
       <c r="E4">
-        <v>1.063056760753208</v>
+        <v>1.048129995678175</v>
       </c>
       <c r="F4">
-        <v>1.076133573261865</v>
+        <v>1.063678358018855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054171187091721</v>
+        <v>1.068959323981608</v>
       </c>
       <c r="J4">
-        <v>1.060155552370791</v>
+        <v>1.053662085065831</v>
       </c>
       <c r="K4">
-        <v>1.071646724590362</v>
+        <v>1.075241843152867</v>
       </c>
       <c r="L4">
-        <v>1.06547417378598</v>
+        <v>1.057680266994053</v>
       </c>
       <c r="M4">
-        <v>1.078520108698895</v>
+        <v>1.073064503452355</v>
       </c>
       <c r="N4">
-        <v>1.023769866794241</v>
+        <v>1.021101309985683</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056017977912843</v>
+        <v>1.036510725315597</v>
       </c>
       <c r="D5">
-        <v>1.069468977155693</v>
+        <v>1.066922056931807</v>
       </c>
       <c r="E5">
-        <v>1.06331980674236</v>
+        <v>1.049297547112636</v>
       </c>
       <c r="F5">
-        <v>1.076407406749893</v>
+        <v>1.064896513230858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054263767365754</v>
+        <v>1.069483907378274</v>
       </c>
       <c r="J5">
-        <v>1.060360861406719</v>
+        <v>1.054593286956065</v>
       </c>
       <c r="K5">
-        <v>1.071821154166299</v>
+        <v>1.076068658922436</v>
       </c>
       <c r="L5">
-        <v>1.065686278656967</v>
+        <v>1.058624671598723</v>
       </c>
       <c r="M5">
-        <v>1.078743664177515</v>
+        <v>1.074063492365254</v>
       </c>
       <c r="N5">
-        <v>1.023840143861906</v>
+        <v>1.021426322373747</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056068489064443</v>
+        <v>1.036743912665154</v>
       </c>
       <c r="D6">
-        <v>1.069506747965225</v>
+        <v>1.067096555568185</v>
       </c>
       <c r="E6">
-        <v>1.063363979512368</v>
+        <v>1.049492812271091</v>
       </c>
       <c r="F6">
-        <v>1.076453391085666</v>
+        <v>1.065100241502961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054279294092875</v>
+        <v>1.069571455444935</v>
       </c>
       <c r="J6">
-        <v>1.060395327874222</v>
+        <v>1.05474891590889</v>
       </c>
       <c r="K6">
-        <v>1.071850432422146</v>
+        <v>1.076206816671245</v>
       </c>
       <c r="L6">
-        <v>1.065721889457251</v>
+        <v>1.058782541009171</v>
       </c>
       <c r="M6">
-        <v>1.078781197955362</v>
+        <v>1.074230491957247</v>
       </c>
       <c r="N6">
-        <v>1.023851939242922</v>
+        <v>1.02148062953327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055721178695579</v>
+        <v>1.035134609959623</v>
       </c>
       <c r="D7">
-        <v>1.06924702810943</v>
+        <v>1.065892443390207</v>
       </c>
       <c r="E7">
-        <v>1.063060275171509</v>
+        <v>1.048145648596227</v>
       </c>
       <c r="F7">
-        <v>1.076137231803266</v>
+        <v>1.063694689360805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054172425353732</v>
+        <v>1.068966369292361</v>
       </c>
       <c r="J7">
-        <v>1.060158296110296</v>
+        <v>1.053674576619273</v>
       </c>
       <c r="K7">
-        <v>1.071649055945581</v>
+        <v>1.075252936119811</v>
       </c>
       <c r="L7">
-        <v>1.065477008111749</v>
+        <v>1.057692933369782</v>
       </c>
       <c r="M7">
-        <v>1.07852309600335</v>
+        <v>1.073077901525564</v>
       </c>
       <c r="N7">
-        <v>1.023770806137797</v>
+        <v>1.021105670590566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054269820572442</v>
+        <v>1.02825697259577</v>
       </c>
       <c r="D8">
-        <v>1.06816143016738</v>
+        <v>1.060751039690476</v>
       </c>
       <c r="E8">
-        <v>1.061791739026678</v>
+        <v>1.042399422217718</v>
       </c>
       <c r="F8">
-        <v>1.074816679787786</v>
+        <v>1.057699448320599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053723140879318</v>
+        <v>1.066358344359088</v>
       </c>
       <c r="J8">
-        <v>1.059166699961174</v>
+        <v>1.049076088474244</v>
       </c>
       <c r="K8">
-        <v>1.070806001139087</v>
+        <v>1.071166486143927</v>
       </c>
       <c r="L8">
-        <v>1.064453077893558</v>
+        <v>1.053034134600277</v>
       </c>
       <c r="M8">
-        <v>1.077443960290222</v>
+        <v>1.06815070224598</v>
       </c>
       <c r="N8">
-        <v>1.023431040266357</v>
+        <v>1.019499158797437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051713609288588</v>
+        <v>1.015516863567786</v>
       </c>
       <c r="D9">
-        <v>1.066248468061423</v>
+        <v>1.051250330314456</v>
       </c>
       <c r="E9">
-        <v>1.059559825235911</v>
+        <v>1.031801870567717</v>
       </c>
       <c r="F9">
-        <v>1.072493279292837</v>
+        <v>1.04664322834055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052921689881474</v>
+        <v>1.061445623383122</v>
       </c>
       <c r="J9">
-        <v>1.057416212238314</v>
+        <v>1.040533333923144</v>
       </c>
       <c r="K9">
-        <v>1.069315429198888</v>
+        <v>1.063563241708189</v>
       </c>
       <c r="L9">
-        <v>1.062647415843033</v>
+        <v>1.044399227143322</v>
       </c>
       <c r="M9">
-        <v>1.075541233142731</v>
+        <v>1.059022310486586</v>
       </c>
       <c r="N9">
-        <v>1.022829915733876</v>
+        <v>1.016509327648694</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050010295164916</v>
+        <v>1.006552685240371</v>
       </c>
       <c r="D10">
-        <v>1.064973196837669</v>
+        <v>1.044586920627033</v>
       </c>
       <c r="E10">
-        <v>1.058074192425707</v>
+        <v>1.024381053840738</v>
       </c>
       <c r="F10">
-        <v>1.070946777191243</v>
+        <v>1.038902085754967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052380839531436</v>
+        <v>1.057936902539085</v>
       </c>
       <c r="J10">
-        <v>1.056247092713328</v>
+        <v>1.034508712504597</v>
       </c>
       <c r="K10">
-        <v>1.068318374181673</v>
+        <v>1.058195251394761</v>
       </c>
       <c r="L10">
-        <v>1.061442733107868</v>
+        <v>1.038323625477934</v>
       </c>
       <c r="M10">
-        <v>1.074271992041709</v>
+        <v>1.05260276418396</v>
       </c>
       <c r="N10">
-        <v>1.022427550757014</v>
+        <v>1.014397859068695</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049272930936336</v>
+        <v>1.002546278281477</v>
       </c>
       <c r="D11">
-        <v>1.064421006170787</v>
+        <v>1.041615285179324</v>
       </c>
       <c r="E11">
-        <v>1.057431447803341</v>
+        <v>1.021073931316101</v>
       </c>
       <c r="F11">
-        <v>1.070277705707565</v>
+        <v>1.035452523916119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052145093221428</v>
+        <v>1.056357169513802</v>
       </c>
       <c r="J11">
-        <v>1.055740346178991</v>
+        <v>1.031813511414865</v>
       </c>
       <c r="K11">
-        <v>1.067885850181401</v>
+        <v>1.055792872191677</v>
       </c>
       <c r="L11">
-        <v>1.060920878301701</v>
+        <v>1.035609074261058</v>
       </c>
       <c r="M11">
-        <v>1.073722220370754</v>
+        <v>1.04973545768146</v>
       </c>
       <c r="N11">
-        <v>1.022252940489828</v>
+        <v>1.01345272417006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048999067710976</v>
+        <v>1.001038131356945</v>
       </c>
       <c r="D12">
-        <v>1.064215899998203</v>
+        <v>1.040497760510058</v>
       </c>
       <c r="E12">
-        <v>1.057192785736656</v>
+        <v>1.019830537963434</v>
       </c>
       <c r="F12">
-        <v>1.070029269276601</v>
+        <v>1.034155634999491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052057293033422</v>
+        <v>1.055760838874476</v>
       </c>
       <c r="J12">
-        <v>1.055552041205108</v>
+        <v>1.030798620490771</v>
       </c>
       <c r="K12">
-        <v>1.067725072682296</v>
+        <v>1.05488814817795</v>
       </c>
       <c r="L12">
-        <v>1.060727005283041</v>
+        <v>1.034587428734101</v>
       </c>
       <c r="M12">
-        <v>1.073517983526901</v>
+        <v>1.048656472168385</v>
       </c>
       <c r="N12">
-        <v>1.022188024907119</v>
+        <v>1.013096762167775</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049057811105802</v>
+        <v>1.001362559432253</v>
       </c>
       <c r="D13">
-        <v>1.06425989586877</v>
+        <v>1.040738107320547</v>
       </c>
       <c r="E13">
-        <v>1.057243975851424</v>
+        <v>1.020097942874589</v>
       </c>
       <c r="F13">
-        <v>1.070082555815647</v>
+        <v>1.034434541900151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052076137038038</v>
+        <v>1.055889193796044</v>
       </c>
       <c r="J13">
-        <v>1.055592436736093</v>
+        <v>1.031016954495792</v>
       </c>
       <c r="K13">
-        <v>1.067759565374772</v>
+        <v>1.055082785556807</v>
       </c>
       <c r="L13">
-        <v>1.060768593192342</v>
+        <v>1.034807191629447</v>
       </c>
       <c r="M13">
-        <v>1.073561794249958</v>
+        <v>1.048888562252932</v>
       </c>
       <c r="N13">
-        <v>1.022201952123275</v>
+        <v>1.013173343246727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049250292776269</v>
+        <v>1.002422029638095</v>
       </c>
       <c r="D14">
-        <v>1.064404051986352</v>
+        <v>1.041523194852206</v>
       </c>
       <c r="E14">
-        <v>1.057411718250787</v>
+        <v>1.020971462974795</v>
       </c>
       <c r="F14">
-        <v>1.070257168108478</v>
+        <v>1.035345645750543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052137840393831</v>
+        <v>1.056308074243159</v>
       </c>
       <c r="J14">
-        <v>1.055724782397415</v>
+        <v>1.031729905907264</v>
       </c>
       <c r="K14">
-        <v>1.067872562685755</v>
+        <v>1.055718343805792</v>
       </c>
       <c r="L14">
-        <v>1.060904853368642</v>
+        <v>1.035524901439888</v>
       </c>
       <c r="M14">
-        <v>1.073705338642785</v>
+        <v>1.049646557507639</v>
       </c>
       <c r="N14">
-        <v>1.02224757572119</v>
+        <v>1.013423401719847</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049368890601653</v>
+        <v>1.003072116907201</v>
       </c>
       <c r="D15">
-        <v>1.064492871611632</v>
+        <v>1.042005070605956</v>
       </c>
       <c r="E15">
-        <v>1.057515080736731</v>
+        <v>1.021507654930139</v>
       </c>
       <c r="F15">
-        <v>1.070364763975775</v>
+        <v>1.035904915673409</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052175826926444</v>
+        <v>1.056564880540316</v>
       </c>
       <c r="J15">
-        <v>1.055806314753984</v>
+        <v>1.032167329375832</v>
       </c>
       <c r="K15">
-        <v>1.067942168320198</v>
+        <v>1.056108272164023</v>
       </c>
       <c r="L15">
-        <v>1.060988803400671</v>
+        <v>1.035965314824633</v>
       </c>
       <c r="M15">
-        <v>1.073793777485765</v>
+        <v>1.050111711814942</v>
       </c>
       <c r="N15">
-        <v>1.022275678301241</v>
+        <v>1.013576813947127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050059235378371</v>
+        <v>1.006815843950271</v>
       </c>
       <c r="D16">
-        <v>1.065009844170721</v>
+        <v>1.044782256116569</v>
       </c>
       <c r="E16">
-        <v>1.05811686074734</v>
+        <v>1.024598485684165</v>
       </c>
       <c r="F16">
-        <v>1.070991193379851</v>
+        <v>1.039128889932471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052396452488648</v>
+        <v>1.058040431857201</v>
       </c>
       <c r="J16">
-        <v>1.056280713055401</v>
+        <v>1.034685696729796</v>
       </c>
       <c r="K16">
-        <v>1.068347062697434</v>
+        <v>1.05835299127823</v>
       </c>
       <c r="L16">
-        <v>1.061477362276148</v>
+        <v>1.038501953266728</v>
       </c>
       <c r="M16">
-        <v>1.074308474758261</v>
+        <v>1.052791147133235</v>
       </c>
       <c r="N16">
-        <v>1.022439130990088</v>
+        <v>1.014459912664699</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050492318679986</v>
+        <v>1.009129919930269</v>
       </c>
       <c r="D17">
-        <v>1.065334130477771</v>
+        <v>1.046500681517823</v>
       </c>
       <c r="E17">
-        <v>1.058494487246914</v>
+        <v>1.026511554162473</v>
       </c>
       <c r="F17">
-        <v>1.071384289884111</v>
+        <v>1.041124457731961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052534428908569</v>
+        <v>1.058949507672335</v>
       </c>
       <c r="J17">
-        <v>1.056578153934863</v>
+        <v>1.036241714130758</v>
       </c>
       <c r="K17">
-        <v>1.068600830219852</v>
+        <v>1.059739714692213</v>
       </c>
       <c r="L17">
-        <v>1.061783763676821</v>
+        <v>1.040070176968106</v>
       </c>
       <c r="M17">
-        <v>1.074631282173802</v>
+        <v>1.054447902169435</v>
       </c>
       <c r="N17">
-        <v>1.022541557900529</v>
+        <v>1.015005418552702</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050744946450169</v>
+        <v>1.010467722628984</v>
       </c>
       <c r="D18">
-        <v>1.065523282144015</v>
+        <v>1.047494734025863</v>
       </c>
       <c r="E18">
-        <v>1.058714802891624</v>
+        <v>1.027618421536268</v>
       </c>
       <c r="F18">
-        <v>1.071613631802892</v>
+        <v>1.042279086920467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052614758226656</v>
+        <v>1.059473958782182</v>
       </c>
       <c r="J18">
-        <v>1.056751596961416</v>
+        <v>1.037141022507802</v>
       </c>
       <c r="K18">
-        <v>1.068748772031169</v>
+        <v>1.06054108761435</v>
       </c>
       <c r="L18">
-        <v>1.061962461275203</v>
+        <v>1.040976866245953</v>
       </c>
       <c r="M18">
-        <v>1.074819552716405</v>
+        <v>1.055405863004176</v>
       </c>
       <c r="N18">
-        <v>1.022601264769919</v>
+        <v>1.015320644574338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050831088998209</v>
+        <v>1.010921886083674</v>
       </c>
       <c r="D19">
-        <v>1.065587778120059</v>
+        <v>1.047832298492411</v>
       </c>
       <c r="E19">
-        <v>1.058789933732871</v>
+        <v>1.02799433488452</v>
       </c>
       <c r="F19">
-        <v>1.071691840855966</v>
+        <v>1.042671225742905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052642123005568</v>
+        <v>1.059651813312993</v>
       </c>
       <c r="J19">
-        <v>1.056810728208658</v>
+        <v>1.037446279840996</v>
       </c>
       <c r="K19">
-        <v>1.068799203383792</v>
+        <v>1.060813085459477</v>
       </c>
       <c r="L19">
-        <v>1.062023388949213</v>
+        <v>1.041284683899643</v>
       </c>
       <c r="M19">
-        <v>1.074883745122455</v>
+        <v>1.055731101378153</v>
       </c>
       <c r="N19">
-        <v>1.022621616988888</v>
+        <v>1.015427634304855</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05044585112382</v>
+        <v>1.00888288698377</v>
       </c>
       <c r="D20">
-        <v>1.065299337524125</v>
+        <v>1.046317172030632</v>
       </c>
       <c r="E20">
-        <v>1.058453966066222</v>
+        <v>1.026307236349463</v>
       </c>
       <c r="F20">
-        <v>1.071342108619454</v>
+        <v>1.040911325801184</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052519640858671</v>
+        <v>1.058852575358457</v>
       </c>
       <c r="J20">
-        <v>1.056546246433813</v>
+        <v>1.036075631106172</v>
       </c>
       <c r="K20">
-        <v>1.068573611276266</v>
+        <v>1.059591710583163</v>
       </c>
       <c r="L20">
-        <v>1.061750891894112</v>
+        <v>1.039902757146449</v>
       </c>
       <c r="M20">
-        <v>1.074596649808332</v>
+        <v>1.054271021939436</v>
       </c>
       <c r="N20">
-        <v>1.022530572290426</v>
+        <v>1.014947198747874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049193610990628</v>
+        <v>1.002110604266084</v>
       </c>
       <c r="D21">
-        <v>1.064361601542773</v>
+        <v>1.041292391447621</v>
       </c>
       <c r="E21">
-        <v>1.057362320032907</v>
+        <v>1.020714654041185</v>
       </c>
       <c r="F21">
-        <v>1.070205746750255</v>
+        <v>1.035077785767133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052119676739206</v>
+        <v>1.056184991898004</v>
       </c>
       <c r="J21">
-        <v>1.055685812018336</v>
+        <v>1.03152034626156</v>
       </c>
       <c r="K21">
-        <v>1.067839291072247</v>
+        <v>1.055531534827926</v>
       </c>
       <c r="L21">
-        <v>1.0608647290511</v>
+        <v>1.035313928412587</v>
       </c>
       <c r="M21">
-        <v>1.07366306914548</v>
+        <v>1.049423738190829</v>
       </c>
       <c r="N21">
-        <v>1.02223414229695</v>
+        <v>1.013349903113726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048406431954198</v>
+        <v>0.9977362639357564</v>
       </c>
       <c r="D22">
-        <v>1.06377202168742</v>
+        <v>1.038053273037227</v>
       </c>
       <c r="E22">
-        <v>1.056676432790283</v>
+        <v>1.017111212381091</v>
       </c>
       <c r="F22">
-        <v>1.069491771577307</v>
+        <v>1.031319432655243</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051866852416181</v>
+        <v>1.054452277379929</v>
       </c>
       <c r="J22">
-        <v>1.055144378653334</v>
+        <v>1.02857613709338</v>
       </c>
       <c r="K22">
-        <v>1.067376907441597</v>
+        <v>1.052906788962834</v>
       </c>
       <c r="L22">
-        <v>1.060307372919501</v>
+        <v>1.032351147019231</v>
       </c>
       <c r="M22">
-        <v>1.073075932831482</v>
+        <v>1.046294971554455</v>
       </c>
       <c r="N22">
-        <v>1.022047432036162</v>
+        <v>1.012317143029962</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048823716076262</v>
+        <v>1.000066650570022</v>
       </c>
       <c r="D23">
-        <v>1.064084567823439</v>
+        <v>1.039778227392798</v>
       </c>
       <c r="E23">
-        <v>1.057039989621456</v>
+        <v>1.019030039740763</v>
       </c>
       <c r="F23">
-        <v>1.069870215786725</v>
+        <v>1.033320713999647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052001007419447</v>
+        <v>1.055376249223723</v>
       </c>
       <c r="J23">
-        <v>1.055431444858215</v>
+        <v>1.030144789364791</v>
       </c>
       <c r="K23">
-        <v>1.067622090823836</v>
+        <v>1.05430526917922</v>
       </c>
       <c r="L23">
-        <v>1.060602855986246</v>
+        <v>1.033929397553058</v>
       </c>
       <c r="M23">
-        <v>1.073387199737502</v>
+        <v>1.047961553112249</v>
       </c>
       <c r="N23">
-        <v>1.022146442214166</v>
+        <v>1.012867420926867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050466847757611</v>
+        <v>1.008994547404195</v>
       </c>
       <c r="D24">
-        <v>1.065315058959265</v>
+        <v>1.046400117588705</v>
       </c>
       <c r="E24">
-        <v>1.058472275681258</v>
+        <v>1.026399586501383</v>
       </c>
       <c r="F24">
-        <v>1.071361168346084</v>
+        <v>1.041007659779967</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052526323405262</v>
+        <v>1.058896392780047</v>
       </c>
       <c r="J24">
-        <v>1.056560664211997</v>
+        <v>1.036150702438235</v>
       </c>
       <c r="K24">
-        <v>1.068585910581528</v>
+        <v>1.059658610334829</v>
       </c>
       <c r="L24">
-        <v>1.061765745303024</v>
+        <v>1.039978431714275</v>
       </c>
       <c r="M24">
-        <v>1.074612298737725</v>
+        <v>1.054350972391749</v>
       </c>
       <c r="N24">
-        <v>1.022535536329101</v>
+        <v>1.014973514894607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052374303623594</v>
+        <v>1.018889304314594</v>
       </c>
       <c r="D25">
-        <v>1.066743010807163</v>
+        <v>1.053762008645925</v>
       </c>
       <c r="E25">
-        <v>1.060136422644052</v>
+        <v>1.034601309513665</v>
       </c>
       <c r="F25">
-        <v>1.073093507187809</v>
+        <v>1.049563716864706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053130039234468</v>
+        <v>1.062755259769474</v>
       </c>
       <c r="J25">
-        <v>1.057869130497676</v>
+        <v>1.042797271667252</v>
       </c>
       <c r="K25">
-        <v>1.069701368181774</v>
+        <v>1.065579366335123</v>
       </c>
       <c r="L25">
-        <v>1.063114383583813</v>
+        <v>1.046685222024635</v>
       </c>
       <c r="M25">
-        <v>1.076033268367597</v>
+        <v>1.061438430195023</v>
       </c>
       <c r="N25">
-        <v>1.022985606091618</v>
+        <v>1.017302226769036</v>
       </c>
     </row>
   </sheetData>
